--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>11543500</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>5034600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>5034600</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>9278700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>9278700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>7417800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,41 @@
         <v>7417800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>1931500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43718,6 +43718,41 @@
         <v>1931500</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>6139900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>6139900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3718000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>3718000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1837900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43823,6 +43823,41 @@
         <v>1837900</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>221100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43858,6 +43858,41 @@
         <v>221100</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>4601200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43893,6 +43893,41 @@
         <v>4601200</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>10561200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43928,6 +43928,41 @@
         <v>10561200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>13367800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43963,6 +43963,41 @@
         <v>13367800</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1152300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43998,6 +43998,76 @@
         <v>1152300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>791700</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1194900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44068,6 +44068,76 @@
         <v>1194900</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>644000</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1308700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44138,6 +44138,41 @@
         <v>1308700</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>380000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44173,6 +44173,41 @@
         <v>380000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>4381000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44208,6 +44208,41 @@
         <v>4381000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>4336800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44243,6 +44243,41 @@
         <v>4336800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1925400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44278,6 +44278,76 @@
         <v>1925400</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>639700</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1436100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44348,6 +44348,41 @@
         <v>1436100</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>711500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44383,6 +44383,41 @@
         <v>711500</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>922400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1491"/>
+  <dimension ref="A1:I1492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53203,6 +53203,41 @@
         <v>922400</v>
       </c>
     </row>
+    <row r="1492">
+      <c r="A1492" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1492" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1492" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1492" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1492" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1492" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1492" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>679300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1492"/>
+  <dimension ref="A1:I1493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53238,6 +53238,41 @@
         <v>679300</v>
       </c>
     </row>
+    <row r="1493">
+      <c r="A1493" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1493" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1493" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1493" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1493" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F1493" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1493" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>1552800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1493"/>
+  <dimension ref="A1:I1494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53273,6 +53273,41 @@
         <v>1552800</v>
       </c>
     </row>
+    <row r="1494">
+      <c r="A1494" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1494" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1494" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1494" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1494" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1494" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1494" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>961000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1494"/>
+  <dimension ref="A1:I1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53308,6 +53308,41 @@
         <v>961000</v>
       </c>
     </row>
+    <row r="1495">
+      <c r="A1495" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1495" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1495" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1495" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1495" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1495" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1495" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>560800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1495"/>
+  <dimension ref="A1:I1496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53343,6 +53343,41 @@
         <v>560800</v>
       </c>
     </row>
+    <row r="1496">
+      <c r="A1496" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1496" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1496" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1496" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1496" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1496" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1496" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>143000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1496"/>
+  <dimension ref="A1:I1497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53378,6 +53378,41 @@
         <v>143000</v>
       </c>
     </row>
+    <row r="1497">
+      <c r="A1497" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1497" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1497" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1497" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1497" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1497" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1497" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>214700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1497"/>
+  <dimension ref="A1:I1498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53413,6 +53413,41 @@
         <v>214700</v>
       </c>
     </row>
+    <row r="1498">
+      <c r="A1498" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1498" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1498" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1498" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1498" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1498" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1498" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>183000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1498"/>
+  <dimension ref="A1:I1499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53448,6 +53448,41 @@
         <v>183000</v>
       </c>
     </row>
+    <row r="1499">
+      <c r="A1499" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1499" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1499" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1499" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1499" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1499" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1499" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>495700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1499"/>
+  <dimension ref="A1:I1500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53483,6 +53483,41 @@
         <v>495700</v>
       </c>
     </row>
+    <row r="1500">
+      <c r="A1500" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1500" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1500" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1500" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1500" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1500" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1500" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>241200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1500"/>
+  <dimension ref="A1:I1501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53518,6 +53518,41 @@
         <v>241200</v>
       </c>
     </row>
+    <row r="1501">
+      <c r="A1501" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1501" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1501" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1501" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1501" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1501" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1501" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>655800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1501"/>
+  <dimension ref="A1:I1502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53553,6 +53553,41 @@
         <v>655800</v>
       </c>
     </row>
+    <row r="1502">
+      <c r="A1502" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1502" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1502" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1502" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1502" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1502" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1502" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>251000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1502"/>
+  <dimension ref="A1:I1503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53588,6 +53588,41 @@
         <v>251000</v>
       </c>
     </row>
+    <row r="1503">
+      <c r="A1503" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1503" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1503" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1503" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1503" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1503" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1503" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>297800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1503"/>
+  <dimension ref="A1:I1504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53623,6 +53623,41 @@
         <v>297800</v>
       </c>
     </row>
+    <row r="1504">
+      <c r="A1504" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1504" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1504" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1504" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1504" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1504" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1504" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>373000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1504"/>
+  <dimension ref="A1:I1505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53658,6 +53658,41 @@
         <v>373000</v>
       </c>
     </row>
+    <row r="1505">
+      <c r="A1505" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1505" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1505" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1505" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1505" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F1505" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G1505" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>29400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1505"/>
+  <dimension ref="A1:I1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -53693,6 +53693,41 @@
         <v>29400</v>
       </c>
     </row>
+    <row r="1506">
+      <c r="A1506" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1506" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1506" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D1506" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E1506" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1506" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1506" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2536"/>
+  <dimension ref="A1:I2537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89778,6 +89778,41 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="2537">
+      <c r="A2537" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2537" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2537" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2537" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2537" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2537" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2537" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2537" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2537" t="n">
+        <v>239700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2537"/>
+  <dimension ref="A1:I2538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89813,6 +89813,41 @@
         <v>239700</v>
       </c>
     </row>
+    <row r="2538">
+      <c r="A2538" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2538" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2538" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2538" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2538" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2538" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2538" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2538" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2538" t="n">
+        <v>346800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2538"/>
+  <dimension ref="A1:I2539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89848,6 +89848,41 @@
         <v>346800</v>
       </c>
     </row>
+    <row r="2539">
+      <c r="A2539" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2539" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2539" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2539" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2539" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2539" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2539" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2539" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2539" t="n">
+        <v>81900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2539"/>
+  <dimension ref="A1:I2540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89883,6 +89883,41 @@
         <v>81900</v>
       </c>
     </row>
+    <row r="2540">
+      <c r="A2540" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2540" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2540" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2540" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2540" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2540" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2540" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2540" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2540" t="n">
+        <v>61700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2540"/>
+  <dimension ref="A1:I2541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89918,6 +89918,41 @@
         <v>61700</v>
       </c>
     </row>
+    <row r="2541">
+      <c r="A2541" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2541" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2541" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2541" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2541" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2541" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2541" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2541" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2541" t="n">
+        <v>20100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2541"/>
+  <dimension ref="A1:I2542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89953,6 +89953,41 @@
         <v>20100</v>
       </c>
     </row>
+    <row r="2542">
+      <c r="A2542" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2542" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2542" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2542" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2542" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F2542" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2542" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2542" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2542" t="n">
+        <v>26000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2542"/>
+  <dimension ref="A1:I2543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89988,6 +89988,41 @@
         <v>26000</v>
       </c>
     </row>
+    <row r="2543">
+      <c r="A2543" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2543" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2543" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2543" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2543" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2543" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2543" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2543" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2543" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2543"/>
+  <dimension ref="A1:I2544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90023,6 +90023,41 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2544">
+      <c r="A2544" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2544" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2544" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2544" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2544" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2544" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2544" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2544" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2544" t="n">
+        <v>35500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2544"/>
+  <dimension ref="A1:I2545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90058,6 +90058,41 @@
         <v>35500</v>
       </c>
     </row>
+    <row r="2545">
+      <c r="A2545" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2545" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2545" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2545" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2545" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2545" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2545" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2545" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2545" t="n">
+        <v>169000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2545"/>
+  <dimension ref="A1:I2546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90093,6 +90093,41 @@
         <v>169000</v>
       </c>
     </row>
+    <row r="2546">
+      <c r="A2546" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2546" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2546" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2546" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2546" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2546" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2546" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2546" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2546" t="n">
+        <v>157300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2546"/>
+  <dimension ref="A1:I2548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90128,6 +90128,76 @@
         <v>157300</v>
       </c>
     </row>
+    <row r="2547">
+      <c r="A2547" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2547" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2547" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2547" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2547" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2547" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2547" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2547" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2547" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="2548">
+      <c r="A2548" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2548" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2548" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2548" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2548" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2548" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2548" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2548" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2548" t="n">
+        <v>2400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2548"/>
+  <dimension ref="A1:I2551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90198,6 +90198,111 @@
         <v>2400</v>
       </c>
     </row>
+    <row r="2549">
+      <c r="A2549" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2549" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2549" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2549" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2549" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2549" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2549" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2549" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2549" t="n">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="2550">
+      <c r="A2550" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2550" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2550" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2550" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2550" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2550" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2550" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2550" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2550" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2551">
+      <c r="A2551" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2551" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2551" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2551" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2551" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2551" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2551" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2551" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2551" t="n">
+        <v>802300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2551"/>
+  <dimension ref="A1:I2552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90303,6 +90303,41 @@
         <v>802300</v>
       </c>
     </row>
+    <row r="2552">
+      <c r="A2552" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2552" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2552" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2552" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2552" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2552" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2552" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2552" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2552" t="n">
+        <v>250500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2552"/>
+  <dimension ref="A1:I2553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90338,6 +90338,41 @@
         <v>250500</v>
       </c>
     </row>
+    <row r="2553">
+      <c r="A2553" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2553" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2553" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2553" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2553" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2553" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2553" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2553" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2553" t="n">
+        <v>137300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5025.xlsx
+++ b/data/5025.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2553"/>
+  <dimension ref="A1:I2556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90373,6 +90373,113 @@
         <v>137300</v>
       </c>
     </row>
+    <row r="2554">
+      <c r="A2554" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2554" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2554" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2554" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2554" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F2554" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2554" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H2554" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2554" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2555">
+      <c r="A2555" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2555" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2555" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2555" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2555" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2555" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2555" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="H2555" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2555" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="2556">
+      <c r="A2556" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2556" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2556" t="inlineStr">
+        <is>
+          <t>5025</t>
+        </is>
+      </c>
+      <c r="D2556" t="inlineStr">
+        <is>
+          <t>NWP</t>
+        </is>
+      </c>
+      <c r="E2556" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2556" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2556" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2556" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2556" t="n">
+        <v>101200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
